--- a/src/resources/suzuki.xlsx
+++ b/src/resources/suzuki.xlsx
@@ -5,13 +5,12 @@
   <sheets>
     <sheet name="JP-EV" sheetId="1" r:id="rId1"/>
     <sheet name="JP-M" sheetId="2" r:id="rId2"/>
-    <sheet name="JP-B" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="202">
   <si>
     <t>Year</t>
   </si>
@@ -28,7 +27,7 @@
     <t>Consumption</t>
   </si>
   <si>
-    <t>2017</t>
+    <t>2018</t>
   </si>
   <si>
     <t>Offshore</t>
@@ -43,9 +42,6 @@
     <t>JPY 11075</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -124,18 +120,6 @@
     <t>Oct-22</t>
   </si>
   <si>
-    <t>May-17</t>
-  </si>
-  <si>
-    <t>Jun-20</t>
-  </si>
-  <si>
-    <t>Jul-20</t>
-  </si>
-  <si>
-    <t>Aug-20</t>
-  </si>
-  <si>
     <t>Aug-21</t>
   </si>
   <si>
@@ -631,19 +615,7 @@
     <t>Santosh Kanan</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
     <t>Abdul Visen/Vikas Tallapadi</t>
-  </si>
-  <si>
-    <t>ertet</t>
-  </si>
-  <si>
-    <t>wese</t>
   </si>
 </sst>
 </file>
@@ -734,13 +706,12 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1109,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>3616</v>
+        <v>5608</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1126,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>1344</v>
+        <v>3060</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1143,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>5608</v>
+        <v>2542.5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1160,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>3060</v>
+        <v>1494</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1177,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>2542.5</v>
+        <v>14185</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1194,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>1494</v>
+        <v>12409.086</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1211,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>22335.5</v>
+        <v>20437.586</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1228,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>16963.086</v>
+        <v>28538.5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1245,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>20437.586</v>
+        <v>7532</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -1262,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>28538.5</v>
+        <v>15330.5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -1271,4212 +1242,3502 @@
         <f>="JPY"&amp;" "&amp;ROUND(C11*REPLACE(D11,1,4,0),2)</f>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7532</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2">
-        <f>="JPY"&amp;" "&amp;ROUND(C12*REPLACE(D12,1,4,0),2)</f>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2">
-        <v>16654.5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2">
-        <f>="JPY"&amp;" "&amp;ROUND(C13*REPLACE(D13,1,4,0),2)</f>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ61"/>
+  <dimension ref="A1:AF61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="W6" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AE12" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="W14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="AA25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="AD25" s="2" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ25" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC26" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R26" s="2" t="s">
+      <c r="AD26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AE26" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K29" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ29" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K33" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ37" s="2" t="s">
-        <v>156</v>
+        <v>62</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Z38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K39" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z39" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG40" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI40" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ40" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K41" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K42" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ43" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K44" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF45" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ49" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD51" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="AF52" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="AG52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ52" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH54" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ54" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD55" s="2" t="s">
-        <v>115</v>
+        <v>51</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q56" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="R56" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AF57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ57" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD58" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ58" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE59" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="AF59" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG59" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ59" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH60" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ60" s="2" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD61" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AF61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ61" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AJ61"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1" ht="15.5" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AF61"/>
   </ignoredErrors>
 </worksheet>
 </file>